--- a/Halbjahresprojekt/2022-Halbjahresprojekt-SOFT-Kriterien.xlsx
+++ b/Halbjahresprojekt/2022-Halbjahresprojekt-SOFT-Kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikbr\Documents\GitHub\pygame\Halbjahresprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A447E0-C12E-4507-BFA9-1A6F73E57343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D088C57-8034-485C-9547-998F4D5CE494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6490CFF1-C86A-4569-BE6B-8A8C1CC0FF89}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Kriterium</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Spielerkollision mit Map (Stacheln, laufen über Plattformen)</t>
   </si>
   <si>
-    <t>Sounds beim springen, schießen etc.</t>
-  </si>
-  <si>
     <t>Funktionierende Gegner die Spawnen</t>
   </si>
   <si>
@@ -83,6 +80,12 @@
   </si>
   <si>
     <t>Steuerung mit den AD und der Leertaste</t>
+  </si>
+  <si>
+    <t>Sounds beim springen, schießen etc. (optional)</t>
+  </si>
+  <si>
+    <t>Gegner greifen von alleine an (optional)</t>
   </si>
 </sst>
 </file>
@@ -440,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD07AE5A-F007-4DAA-B55C-CB1B80219D5C}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +496,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
@@ -501,7 +504,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
@@ -509,7 +512,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>4</v>
@@ -517,7 +520,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
@@ -525,7 +528,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
@@ -533,7 +536,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>5</v>
@@ -541,7 +544,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>3</v>
@@ -549,7 +552,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
@@ -557,7 +560,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -565,10 +568,18 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
